--- a/biology/Botanique/Galipea/Galipea.xlsx
+++ b/biology/Botanique/Galipea/Galipea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galipea est un genre néotropical d'arbuste, appartenant à la famille des Rutaceae (familles des agrumes), et dont l'espèce type est Galipea trifoliata Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Galipea vient vraisemblablement du nom de la nation amérindienne guyanaise appelée « Galipons », citée par Fusée-Aublet dans le protologue de l'espèce type de ce genre.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Galipea regroupe des arbres ou arbustes atteignant jusqu'à 15 m de haut. Les feuilles sont alternes, composées uni-foliolées ou tri-foliolées, et pétiolées. Le limbe est subsessile ou pétiolulé, entier, souvent bidenté à l'apex, papyracé une fois sec. L'inflorescence terminale ou latérale, pédonculée, est un thyrse allongé, elliptique ou corymboïde ou un dichasium capité. Les fleurs sont légèrement zygomorphes. Le calice cupulaire, comporte 5 lobes ou denticules, persistant dans le fruit. La corolle blanche, mesure jusqu'à 5 cm de long, est pubescente apprimée, avec un tube droit ou recourbé portant 5 lobes imbriqués, subégaux. L'androcée se compose de 2 étamines fertiles et de 3–6 staminodes linéaires ou ligulés souvent terminées par une glande globuleuse. Les filets sont connés en un tube étroitement adhérent ou adné au tube de la corolle. Les anthères sont étroitement oblongues, basifixes, avec des appendices à la base. Le disque cupulaire est glabre, plus court ou égal à l'ovaire. L'ovaire comporte 5 carpelles connés latéralement et ventralement ou moins souvent libre, qui contiennent chacun 2 ovules, surmontés d'un style doté d'un stigmate capité, avec plus ou moins 5 lobes. Le fruit est une capsule composée de 5 méricarpes connés ventralement et dorsalement à maturité, avec une déhiscence ventrale, mais restant conné dans la moitié basalo-dorsalem. Les 5 méricarpes peuvent aussi être libres, et ventralement déhiscents. Chaque carpelle contient une graine unique, ellipsoïdes, lisses ou légèrement rugueuses, glabres ou pubescentes[1].
-Le pollen du genre Galipea a été étudié[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Galipea regroupe des arbres ou arbustes atteignant jusqu'à 15 m de haut. Les feuilles sont alternes, composées uni-foliolées ou tri-foliolées, et pétiolées. Le limbe est subsessile ou pétiolulé, entier, souvent bidenté à l'apex, papyracé une fois sec. L'inflorescence terminale ou latérale, pédonculée, est un thyrse allongé, elliptique ou corymboïde ou un dichasium capité. Les fleurs sont légèrement zygomorphes. Le calice cupulaire, comporte 5 lobes ou denticules, persistant dans le fruit. La corolle blanche, mesure jusqu'à 5 cm de long, est pubescente apprimée, avec un tube droit ou recourbé portant 5 lobes imbriqués, subégaux. L'androcée se compose de 2 étamines fertiles et de 3–6 staminodes linéaires ou ligulés souvent terminées par une glande globuleuse. Les filets sont connés en un tube étroitement adhérent ou adné au tube de la corolle. Les anthères sont étroitement oblongues, basifixes, avec des appendices à la base. Le disque cupulaire est glabre, plus court ou égal à l'ovaire. L'ovaire comporte 5 carpelles connés latéralement et ventralement ou moins souvent libre, qui contiennent chacun 2 ovules, surmontés d'un style doté d'un stigmate capité, avec plus ou moins 5 lobes. Le fruit est une capsule composée de 5 méricarpes connés ventralement et dorsalement à maturité, avec une déhiscence ventrale, mais restant conné dans la moitié basalo-dorsalem. Les 5 méricarpes peuvent aussi être libres, et ventralement déhiscents. Chaque carpelle contient une graine unique, ellipsoïdes, lisses ou légèrement rugueuses, glabres ou pubescentes.
+Le pollen du genre Galipea a été étudié.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Galipea du Guatemala au Brésil en passant par le Nicaragua, le Costa Rica, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, le Pérou et la Bolivie [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Galipea du Guatemala au Brésil en passant par le Nicaragua, le Costa Rica, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, le Pérou et la Bolivie .
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « GALIPEA. (Tabula 269.)
 CAL. Perianthium monophyllum, tubuloſum, quadri vel quinque-angulatum, quadri aut quinque-dentatum, denticulis acutis. 
 COR. monopetala ; tubus brevis, diſco inſertus ; limbus quadri aut quinque-fidus i laciniis oblongis, acutis, inæqualibus. 
@@ -643,9 +663,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (15 décembre 2021)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (15 décembre 2021) :
 Galipea carinata Pirani
 Galipea ciliata Taub.
 Galipea congestiflora Pirani
